--- a/data/case1/2/P1_1.xlsx
+++ b/data/case1/2/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.45621143872223513</v>
+        <v>0.43126688834027505</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.077567369857426627</v>
+        <v>-0.0099999993685067068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995946659084</v>
+        <v>-0.0089999993537706047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999892179147</v>
+        <v>-0.011999999821876273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996006601108</v>
+        <v>-0.044589316932561296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995886776958</v>
+        <v>-0.0059999993372272797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999511455258</v>
+        <v>-0.019999999224152631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999508772959</v>
+        <v>-0.019999999219708187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995828521335</v>
+        <v>-0.0059999993275541286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995813839746</v>
+        <v>-0.0059999993251267369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995893881817</v>
+        <v>-0.0044999993370069546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995811717</v>
+        <v>-0.0059999993250370309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995812312079</v>
+        <v>-0.0059999993251258488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999548902629</v>
+        <v>-0.011999999277820805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.037311044252250625</v>
+        <v>0.037061167062650391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995812001217</v>
+        <v>-0.0059999993247896732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995795365635</v>
+        <v>-0.0059999993219834735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995628531337</v>
+        <v>-0.0089999992975462462</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.072935135426620334</v>
+        <v>-0.0089999993748626217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.012973839922047148</v>
+        <v>-0.07549506592239652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999996009124672</v>
+        <v>-0.0089999993528087074</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999996005296623</v>
+        <v>-0.0089999993522216215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995910829966</v>
+        <v>-0.0089999993479166207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999404648491</v>
+        <v>-0.041999999075346572</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04199999940134358</v>
+        <v>-0.041999999070143623</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995877966228</v>
+        <v>-0.0059999993353336833</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995862054512</v>
+        <v>-0.0059999993328014867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995796591321</v>
+        <v>-0.0059999993213324387</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999542513962</v>
+        <v>-0.011999999266130601</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999496852272</v>
+        <v>-0.0054036160748491824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999521650764</v>
+        <v>-0.014999999231822159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0045431949317009668</v>
+        <v>-0.02099999918296902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995702026965</v>
+        <v>-0.005999999302053638</v>
       </c>
     </row>
   </sheetData>
